--- a/TeachEasy/HTML_Tour/docs/Minutes/Register_and_Action_Tracking/Minutes Action Tracking (2.0).xlsx
+++ b/TeachEasy/HTML_Tour/docs/Minutes/Register_and_Action_Tracking/Minutes Action Tracking (2.0).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="495" windowWidth="21120" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="-90" yWindow="495" windowWidth="21120" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Action Tracking" sheetId="1" r:id="rId1"/>
@@ -1046,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,12 +1097,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF873AC0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1126,7 +1120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="110">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -2441,11 +2435,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2524,10 +2529,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2542,7 +2543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2621,26 +2622,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="90" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2701,13 +2702,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2728,92 +2729,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2836,7 +2759,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2845,17 +2768,96 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3222,11 +3224,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK183"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3247,38 +3249,38 @@
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="229" t="s">
+      <c r="G1" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+      <c r="AA1" s="259"/>
+      <c r="AB1" s="259"/>
+      <c r="AC1" s="259"/>
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="259"/>
+      <c r="AF1" s="259"/>
+      <c r="AG1" s="259"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="259"/>
+      <c r="AJ1" s="259"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3462,16 +3464,16 @@
       <c r="AA3" s="65">
         <v>42111</v>
       </c>
-      <c r="AB3" s="132">
+      <c r="AB3" s="128">
         <v>42114</v>
       </c>
-      <c r="AC3" s="132">
+      <c r="AC3" s="128">
         <v>42125</v>
       </c>
-      <c r="AD3" s="133">
+      <c r="AD3" s="129">
         <v>42128</v>
       </c>
-      <c r="AE3" s="133">
+      <c r="AE3" s="129">
         <v>42132</v>
       </c>
       <c r="AF3" s="67">
@@ -3486,7 +3488,7 @@
       <c r="AI3" s="65">
         <v>42153</v>
       </c>
-      <c r="AJ3" s="228" t="s">
+      <c r="AJ3" s="224" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3516,7 +3518,7 @@
       <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="S4" s="34"/>
@@ -3564,7 +3566,7 @@
       <c r="I5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -3590,7 +3592,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="28"/>
-      <c r="J6" s="84"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
@@ -3616,7 +3618,7 @@
       <c r="I7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="85"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -3642,7 +3644,7 @@
       <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="83"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -3668,7 +3670,7 @@
       <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3694,7 +3696,7 @@
       <c r="I10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3720,7 +3722,7 @@
       <c r="I11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="83"/>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -3746,7 +3748,7 @@
       <c r="I12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3774,7 +3776,7 @@
       <c r="I13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="83"/>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -3800,7 +3802,7 @@
       <c r="I14" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3828,11 +3830,11 @@
       <c r="I15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="J15" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="84"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
@@ -3859,7 +3861,7 @@
       <c r="J16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="90"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -3889,7 +3891,7 @@
       <c r="K17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="86" t="s">
+      <c r="L17" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3918,7 +3920,7 @@
       <c r="J18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="83"/>
+      <c r="L18" s="79"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -3948,7 +3950,7 @@
       <c r="K19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="79"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -3975,7 +3977,7 @@
       <c r="J20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="83"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -4005,7 +4007,7 @@
       <c r="K21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="86" t="s">
+      <c r="L21" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4037,7 +4039,7 @@
       <c r="K22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L22" s="86" t="s">
+      <c r="L22" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4066,7 +4068,7 @@
       <c r="J23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -4093,7 +4095,7 @@
       <c r="J24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="83"/>
+      <c r="L24" s="79"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -4120,7 +4122,7 @@
       <c r="J25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="79"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
@@ -4148,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="28"/>
-      <c r="L26" s="84"/>
+      <c r="L26" s="80"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -4176,7 +4178,7 @@
       <c r="K27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="78" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4206,7 +4208,7 @@
       <c r="K28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="86" t="s">
+      <c r="L28" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4236,7 +4238,7 @@
       <c r="K29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="86" t="s">
+      <c r="L29" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4266,7 +4268,7 @@
       <c r="K30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4296,7 +4298,7 @@
       <c r="K31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="86" t="s">
+      <c r="L31" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4326,7 +4328,7 @@
       <c r="K32" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L32" s="83"/>
+      <c r="L32" s="79"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -4354,7 +4356,7 @@
       <c r="K33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L33" s="83"/>
+      <c r="L33" s="79"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -4382,7 +4384,7 @@
       <c r="K34" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="83"/>
+      <c r="L34" s="79"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -4410,7 +4412,7 @@
       <c r="K35" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L35" s="83"/>
+      <c r="L35" s="79"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -4438,7 +4440,7 @@
       <c r="K36" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L36" s="83"/>
+      <c r="L36" s="79"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -4466,7 +4468,7 @@
       <c r="K37" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="83"/>
+      <c r="L37" s="79"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
@@ -4494,7 +4496,7 @@
       <c r="K38" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L38" s="83"/>
+      <c r="L38" s="79"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
@@ -4522,7 +4524,7 @@
       <c r="K39" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="83"/>
+      <c r="L39" s="79"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
@@ -4550,7 +4552,7 @@
       <c r="K40" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="83"/>
+      <c r="L40" s="79"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
@@ -4578,7 +4580,7 @@
       <c r="K41" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L41" s="83"/>
+      <c r="L41" s="79"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
@@ -4606,7 +4608,7 @@
       <c r="K42" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="83"/>
+      <c r="L42" s="79"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
@@ -4634,7 +4636,7 @@
       <c r="K43" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L43" s="83"/>
+      <c r="L43" s="79"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -4662,7 +4664,7 @@
       <c r="K44" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="83"/>
+      <c r="L44" s="79"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -4690,7 +4692,7 @@
       <c r="K45" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L45" s="83"/>
+      <c r="L45" s="79"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -4718,7 +4720,7 @@
       <c r="K46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="83"/>
+      <c r="L46" s="79"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
@@ -4746,7 +4748,7 @@
       <c r="K47" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="83"/>
+      <c r="L47" s="79"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -4774,7 +4776,7 @@
       <c r="K48" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="L48" s="83"/>
+      <c r="L48" s="79"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -4802,7 +4804,7 @@
       <c r="K49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="86" t="s">
+      <c r="L49" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4832,7 +4834,7 @@
       <c r="K50" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L50" s="87" t="s">
+      <c r="L50" s="83" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4860,7 +4862,7 @@
       <c r="K51" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L51" s="82" t="s">
+      <c r="L51" s="78" t="s">
         <v>14</v>
       </c>
       <c r="M51" s="34"/>
@@ -4889,7 +4891,7 @@
       <c r="K52" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L52" s="86" t="s">
+      <c r="L52" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M52" s="34"/>
@@ -4918,7 +4920,7 @@
       <c r="K53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L53" s="86" t="s">
+      <c r="L53" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M53" s="34"/>
@@ -4947,7 +4949,7 @@
       <c r="K54" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="86" t="s">
+      <c r="L54" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M54" s="34"/>
@@ -4976,7 +4978,7 @@
       <c r="K55" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L55" s="86" t="s">
+      <c r="L55" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M55" s="34"/>
@@ -5005,7 +5007,7 @@
       <c r="K56" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L56" s="86" t="s">
+      <c r="L56" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M56" s="34"/>
@@ -5034,7 +5036,7 @@
       <c r="K57" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L57" s="86" t="s">
+      <c r="L57" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M57" s="34"/>
@@ -5063,7 +5065,7 @@
       <c r="K58" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L58" s="86" t="s">
+      <c r="L58" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M58" s="34"/>
@@ -5092,7 +5094,7 @@
       <c r="K59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L59" s="86" t="s">
+      <c r="L59" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M59" s="34"/>
@@ -5121,7 +5123,7 @@
       <c r="K60" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L60" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M60" s="34"/>
@@ -5150,7 +5152,7 @@
       <c r="K61" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L61" s="86" t="s">
+      <c r="L61" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M61" s="34"/>
@@ -5179,7 +5181,7 @@
       <c r="K62" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L62" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M62" s="34"/>
@@ -5208,7 +5210,7 @@
       <c r="K63" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="86" t="s">
+      <c r="L63" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M63" s="34"/>
@@ -5237,7 +5239,7 @@
       <c r="K64" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L64" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M64" s="34"/>
@@ -5266,7 +5268,7 @@
       <c r="K65" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L65" s="86" t="s">
+      <c r="L65" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M65" s="34"/>
@@ -5296,7 +5298,7 @@
       <c r="K66" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L66" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M66" s="34"/>
@@ -5325,7 +5327,7 @@
       <c r="K67" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L67" s="86" t="s">
+      <c r="L67" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M67" s="34"/>
@@ -5355,7 +5357,7 @@
       <c r="K68" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L68" s="82" t="s">
         <v>14</v>
       </c>
       <c r="M68" s="34"/>
@@ -5384,12 +5386,12 @@
       <c r="K69" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="L69" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="M69" s="88"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
+      <c r="L69" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="M69" s="84"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -5420,7 +5422,7 @@
         <v>14</v>
       </c>
       <c r="N70" s="34"/>
-      <c r="O70" s="90"/>
+      <c r="O70" s="86"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
@@ -5453,7 +5455,7 @@
       <c r="N71" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O71" s="86" t="s">
+      <c r="O71" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5488,7 +5490,7 @@
       <c r="N72" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O72" s="86" t="s">
+      <c r="O72" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5521,7 +5523,7 @@
         <v>14</v>
       </c>
       <c r="N73" s="34"/>
-      <c r="O73" s="84"/>
+      <c r="O73" s="80"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
@@ -5552,7 +5554,7 @@
       <c r="N74" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O74" s="83"/>
+      <c r="O74" s="79"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
@@ -5583,7 +5585,7 @@
       <c r="N75" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O75" s="86" t="s">
+      <c r="O75" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5616,7 +5618,7 @@
       <c r="N76" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="O76" s="86" t="s">
+      <c r="O76" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5649,7 +5651,7 @@
       <c r="N77" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="O77" s="87" t="s">
+      <c r="O77" s="83" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5680,12 +5682,12 @@
       <c r="N78" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="O78" s="91" t="s">
+      <c r="O78" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="P78" s="88"/>
-      <c r="Q78" s="89"/>
-      <c r="R78" s="89"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="85"/>
+      <c r="R78" s="85"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
@@ -5721,7 +5723,7 @@
       <c r="Q79" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R79" s="92" t="s">
+      <c r="R79" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5756,7 +5758,7 @@
       <c r="P80" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R80" s="83"/>
+      <c r="R80" s="79"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
@@ -5789,7 +5791,7 @@
       <c r="P81" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R81" s="84"/>
+      <c r="R81" s="80"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
@@ -5823,7 +5825,7 @@
       <c r="Q82" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="R82" s="86" t="s">
+      <c r="R82" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5859,7 +5861,7 @@
       <c r="Q83" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R83" s="86" t="s">
+      <c r="R83" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5895,7 +5897,7 @@
       <c r="Q84" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R84" s="86" t="s">
+      <c r="R84" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5931,7 +5933,7 @@
       <c r="Q85" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R85" s="86" t="s">
+      <c r="R85" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5967,7 +5969,7 @@
       <c r="Q86" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="R86" s="86" t="s">
+      <c r="R86" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6001,11 +6003,11 @@
       <c r="Q87" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="R87" s="93" t="s">
+      <c r="R87" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="S87" s="88"/>
-      <c r="T87" s="89"/>
+      <c r="S87" s="84"/>
+      <c r="T87" s="85"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
@@ -6041,7 +6043,7 @@
       <c r="S88" t="s">
         <v>118</v>
       </c>
-      <c r="T88" s="92" t="s">
+      <c r="T88" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6079,7 +6081,7 @@
       <c r="S89" t="s">
         <v>118</v>
       </c>
-      <c r="T89" s="86" t="s">
+      <c r="T89" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6117,7 +6119,7 @@
       <c r="S90" t="s">
         <v>118</v>
       </c>
-      <c r="T90" s="86" t="s">
+      <c r="T90" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6155,7 +6157,7 @@
       <c r="S91" t="s">
         <v>118</v>
       </c>
-      <c r="T91" s="86" t="s">
+      <c r="T91" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6193,7 +6195,7 @@
       <c r="S92" t="s">
         <v>118</v>
       </c>
-      <c r="T92" s="87" t="s">
+      <c r="T92" s="83" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6232,7 +6234,7 @@
       <c r="T93" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U93" s="92" t="s">
+      <c r="U93" s="88" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6271,7 +6273,7 @@
       <c r="T94" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U94" s="86" t="s">
+      <c r="U94" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6310,11 +6312,11 @@
       <c r="T95" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="U95" s="84"/>
-      <c r="V95" s="88"/>
-      <c r="W95" s="89"/>
-      <c r="X95" s="89"/>
-      <c r="Y95" s="89"/>
+      <c r="U95" s="80"/>
+      <c r="V95" s="84"/>
+      <c r="W95" s="85"/>
+      <c r="X95" s="85"/>
+      <c r="Y95" s="85"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="32">
@@ -6364,7 +6366,7 @@
       <c r="Y96" t="s">
         <v>118</v>
       </c>
-      <c r="Z96" s="94" t="s">
+      <c r="Z96" s="90" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6405,12 +6407,12 @@
       <c r="V97" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W97" s="96" t="s">
+      <c r="W97" s="92" t="s">
         <v>14</v>
       </c>
       <c r="X97" s="60"/>
       <c r="Y97" s="60"/>
-      <c r="Z97" s="85"/>
+      <c r="Z97" s="81"/>
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -6449,10 +6451,10 @@
       <c r="V98" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="W98" s="97" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z98" s="83"/>
+      <c r="W98" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z98" s="79"/>
     </row>
     <row r="99" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
@@ -6491,10 +6493,10 @@
       <c r="V99" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W99" s="98"/>
-      <c r="X99" s="99"/>
+      <c r="W99" s="94"/>
+      <c r="X99" s="95"/>
       <c r="Y99" s="28"/>
-      <c r="Z99" s="84"/>
+      <c r="Z99" s="80"/>
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="32">
@@ -6537,7 +6539,7 @@
       <c r="X100" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z100" s="83"/>
+      <c r="Z100" s="79"/>
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -6577,22 +6579,22 @@
       <c r="W101" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z101" s="83"/>
+      <c r="Z101" s="79"/>
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" s="266" t="s">
+      <c r="B102" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="C102" s="267">
+      <c r="C102" s="237">
         <v>42067</v>
       </c>
-      <c r="D102" s="182" t="s">
+      <c r="D102" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E102" s="183" t="s">
+      <c r="E102" s="179" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="1"/>
@@ -6620,7 +6622,7 @@
       <c r="X102" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z102" s="83"/>
+      <c r="Z102" s="79"/>
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
@@ -6666,7 +6668,7 @@
       <c r="Y103" t="s">
         <v>118</v>
       </c>
-      <c r="Z103" s="95" t="s">
+      <c r="Z103" s="91" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6714,7 +6716,7 @@
       <c r="Y104" t="s">
         <v>118</v>
       </c>
-      <c r="Z104" s="86" t="s">
+      <c r="Z104" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6758,22 +6760,22 @@
         <v>14</v>
       </c>
       <c r="Y105" s="60"/>
-      <c r="Z105" s="85"/>
+      <c r="Z105" s="81"/>
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>103</v>
       </c>
-      <c r="B106" s="266" t="s">
+      <c r="B106" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="C106" s="267">
+      <c r="C106" s="237">
         <v>42072</v>
       </c>
-      <c r="D106" s="182" t="s">
+      <c r="D106" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="E106" s="183" t="s">
+      <c r="E106" s="179" t="s">
         <v>149</v>
       </c>
       <c r="F106" s="1"/>
@@ -6802,7 +6804,7 @@
       <c r="Y106" t="s">
         <v>118</v>
       </c>
-      <c r="Z106" s="86" t="s">
+      <c r="Z106" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6810,16 +6812,16 @@
       <c r="A107" s="3">
         <v>104</v>
       </c>
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="77">
+      <c r="C107" s="237">
         <v>42072</v>
       </c>
-      <c r="D107" s="78" t="s">
+      <c r="D107" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="79" t="s">
+      <c r="E107" s="179" t="s">
         <v>50</v>
       </c>
       <c r="F107" s="1"/>
@@ -6845,7 +6847,7 @@
       <c r="X107" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z107" s="83"/>
+      <c r="Z107" s="79"/>
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
@@ -6889,7 +6891,7 @@
       <c r="Y108" t="s">
         <v>118</v>
       </c>
-      <c r="Z108" s="86" t="s">
+      <c r="Z108" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6932,9 +6934,9 @@
       <c r="X109" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Z109" s="84"/>
-      <c r="AA109" s="88"/>
-      <c r="AJ109" s="89"/>
+      <c r="Z109" s="80"/>
+      <c r="AA109" s="84"/>
+      <c r="AJ109" s="85"/>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="32">
@@ -6976,33 +6978,33 @@
       <c r="Y110" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="Z110" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB110" s="191"/>
-      <c r="AC110" s="191"/>
-      <c r="AD110" s="191"/>
-      <c r="AE110" s="191"/>
-      <c r="AF110" s="191"/>
-      <c r="AG110" s="191"/>
-      <c r="AH110" s="191"/>
-      <c r="AI110" s="191"/>
-      <c r="AK110" s="265"/>
+      <c r="Z110" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB110" s="187"/>
+      <c r="AC110" s="187"/>
+      <c r="AD110" s="187"/>
+      <c r="AE110" s="187"/>
+      <c r="AF110" s="187"/>
+      <c r="AG110" s="187"/>
+      <c r="AH110" s="187"/>
+      <c r="AI110" s="187"/>
+      <c r="AK110" s="235"/>
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>108</v>
       </c>
-      <c r="B111" s="266" t="s">
+      <c r="B111" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C111" s="267">
+      <c r="C111" s="237">
         <v>42074</v>
       </c>
-      <c r="D111" s="182" t="s">
+      <c r="D111" s="178" t="s">
         <v>166</v>
       </c>
-      <c r="E111" s="183" t="s">
+      <c r="E111" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="1"/>
@@ -7032,7 +7034,7 @@
       <c r="Z111" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ111" s="83"/>
+      <c r="AJ111" s="79"/>
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
@@ -7077,7 +7079,7 @@
       <c r="Z112" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ112" s="83"/>
+      <c r="AJ112" s="79"/>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
@@ -7122,7 +7124,7 @@
       <c r="Z113" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ113" s="83"/>
+      <c r="AJ113" s="79"/>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
@@ -7170,7 +7172,7 @@
       <c r="AA114" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ114" s="83"/>
+      <c r="AJ114" s="79"/>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
@@ -7215,22 +7217,22 @@
       <c r="Z115" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ115" s="83"/>
+      <c r="AJ115" s="79"/>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>113</v>
       </c>
-      <c r="B116" s="76" t="s">
+      <c r="B116" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C116" s="77">
+      <c r="C116" s="237">
         <v>42074</v>
       </c>
-      <c r="D116" s="78" t="s">
+      <c r="D116" s="178" t="s">
         <v>171</v>
       </c>
-      <c r="E116" s="79" t="s">
+      <c r="E116" s="179" t="s">
         <v>50</v>
       </c>
       <c r="F116" s="1"/>
@@ -7260,7 +7262,7 @@
       <c r="Z116" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ116" s="83"/>
+      <c r="AJ116" s="79"/>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
@@ -7275,7 +7277,7 @@
       <c r="D117" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="286" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="1"/>
@@ -7340,16 +7342,16 @@
       <c r="A118" s="3">
         <v>115</v>
       </c>
-      <c r="B118" s="266" t="s">
+      <c r="B118" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C118" s="267">
+      <c r="C118" s="237">
         <v>42074</v>
       </c>
-      <c r="D118" s="182" t="s">
+      <c r="D118" s="178" t="s">
         <v>173</v>
       </c>
-      <c r="E118" s="183" t="s">
+      <c r="E118" s="179" t="s">
         <v>164</v>
       </c>
       <c r="F118" s="1"/>
@@ -7379,7 +7381,7 @@
       <c r="Z118" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ118" s="83"/>
+      <c r="AJ118" s="79"/>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
@@ -7451,7 +7453,7 @@
       <c r="AI119" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ119" s="83"/>
+      <c r="AJ119" s="79"/>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
@@ -7523,22 +7525,22 @@
       <c r="AI120" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ120" s="83"/>
+      <c r="AJ120" s="79"/>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>118</v>
       </c>
-      <c r="B121" s="266" t="s">
+      <c r="B121" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="267">
+      <c r="C121" s="237">
         <v>42074</v>
       </c>
-      <c r="D121" s="182" t="s">
+      <c r="D121" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="183" t="s">
+      <c r="E121" s="179" t="s">
         <v>13</v>
       </c>
       <c r="F121" s="1"/>
@@ -7568,7 +7570,7 @@
       <c r="Z121" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ121" s="83"/>
+      <c r="AJ121" s="79"/>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
@@ -7631,10 +7633,10 @@
       <c r="AF122" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AG122" s="95" t="s">
+      <c r="AG122" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="AJ122" s="83"/>
+      <c r="AJ122" s="79"/>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
@@ -7697,7 +7699,7 @@
       <c r="AF123" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ123" s="83"/>
+      <c r="AJ123" s="79"/>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
@@ -7743,22 +7745,22 @@
         <v>14</v>
       </c>
       <c r="AF124" s="34"/>
-      <c r="AJ124" s="83"/>
+      <c r="AJ124" s="79"/>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>122</v>
       </c>
-      <c r="B125" s="76" t="s">
+      <c r="B125" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C125" s="77">
+      <c r="C125" s="237">
         <v>42074</v>
       </c>
-      <c r="D125" s="78" t="s">
+      <c r="D125" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="E125" s="79" t="s">
+      <c r="E125" s="179" t="s">
         <v>50</v>
       </c>
       <c r="F125" s="1"/>
@@ -7788,7 +7790,7 @@
       <c r="Z125" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ125" s="83"/>
+      <c r="AJ125" s="79"/>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
@@ -7833,7 +7835,7 @@
       <c r="Z126" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ126" s="83"/>
+      <c r="AJ126" s="79"/>
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
@@ -7878,7 +7880,7 @@
       <c r="Z127" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ127" s="83"/>
+      <c r="AJ127" s="79"/>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
@@ -7923,7 +7925,7 @@
       <c r="Z128" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ128" s="83"/>
+      <c r="AJ128" s="79"/>
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
@@ -7968,7 +7970,7 @@
       <c r="Z129" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ129" s="83"/>
+      <c r="AJ129" s="79"/>
     </row>
     <row r="130" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
@@ -8018,22 +8020,22 @@
       <c r="AF130" s="28"/>
       <c r="AH130" s="28"/>
       <c r="AI130" s="28"/>
-      <c r="AJ130" s="83"/>
+      <c r="AJ130" s="79"/>
     </row>
     <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" s="32">
         <v>128</v>
       </c>
-      <c r="B131" s="266" t="s">
+      <c r="B131" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="C131" s="267">
+      <c r="C131" s="237">
         <v>42080</v>
       </c>
-      <c r="D131" s="182" t="s">
+      <c r="D131" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="E131" s="183" t="s">
+      <c r="E131" s="179" t="s">
         <v>22</v>
       </c>
       <c r="F131" s="1"/>
@@ -8058,29 +8060,29 @@
       <c r="Y131" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Z131" s="81" t="s">
+      <c r="Z131" s="77" t="s">
         <v>14</v>
       </c>
       <c r="AA131" s="60"/>
       <c r="AD131" s="60"/>
       <c r="AE131" s="60"/>
       <c r="AG131" s="60"/>
-      <c r="AJ131" s="85"/>
+      <c r="AJ131" s="81"/>
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>129</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="C132" s="77">
+      <c r="C132" s="237">
         <v>42080</v>
       </c>
-      <c r="D132" s="78" t="s">
+      <c r="D132" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="E132" s="79" t="s">
+      <c r="E132" s="179" t="s">
         <v>50</v>
       </c>
       <c r="F132" s="1"/>
@@ -8108,22 +8110,22 @@
       <c r="Z132" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ132" s="83"/>
+      <c r="AJ132" s="79"/>
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>130</v>
       </c>
-      <c r="B133" s="266" t="s">
+      <c r="B133" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="C133" s="267">
+      <c r="C133" s="237">
         <v>42080</v>
       </c>
-      <c r="D133" s="182" t="s">
+      <c r="D133" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="E133" s="183" t="s">
+      <c r="E133" s="179" t="s">
         <v>52</v>
       </c>
       <c r="F133" s="1"/>
@@ -8151,22 +8153,22 @@
       <c r="Z133" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ133" s="83"/>
+      <c r="AJ133" s="79"/>
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>131</v>
       </c>
-      <c r="B134" s="266" t="s">
+      <c r="B134" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="C134" s="267">
+      <c r="C134" s="237">
         <v>42080</v>
       </c>
-      <c r="D134" s="182" t="s">
+      <c r="D134" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="E134" s="183" t="s">
+      <c r="E134" s="179" t="s">
         <v>164</v>
       </c>
       <c r="F134" s="1"/>
@@ -8194,22 +8196,22 @@
       <c r="Z134" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ134" s="83"/>
+      <c r="AJ134" s="79"/>
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>132</v>
       </c>
-      <c r="B135" s="266" t="s">
+      <c r="B135" s="236" t="s">
         <v>186</v>
       </c>
-      <c r="C135" s="267">
+      <c r="C135" s="237">
         <v>42080</v>
       </c>
-      <c r="D135" s="182" t="s">
+      <c r="D135" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="E135" s="183" t="s">
+      <c r="E135" s="179" t="s">
         <v>22</v>
       </c>
       <c r="F135" s="1"/>
@@ -8237,25 +8239,25 @@
       <c r="Z135" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ135" s="83"/>
+      <c r="AJ135" s="79"/>
     </row>
     <row r="136" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
         <v>133</v>
       </c>
-      <c r="B136" s="268" t="s">
+      <c r="B136" s="238" t="s">
         <v>186</v>
       </c>
-      <c r="C136" s="269">
+      <c r="C136" s="239">
         <v>42080</v>
       </c>
-      <c r="D136" s="270" t="s">
+      <c r="D136" s="240" t="s">
         <v>192</v>
       </c>
-      <c r="E136" s="271" t="s">
+      <c r="E136" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="F136" s="80"/>
+      <c r="F136" s="76"/>
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
       <c r="I136" s="29"/>
@@ -8280,7 +8282,7 @@
       <c r="Z136" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ136" s="83"/>
+      <c r="AJ136" s="79"/>
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
@@ -8327,7 +8329,7 @@
       <c r="AB137" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ137" s="83"/>
+      <c r="AJ137" s="79"/>
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
@@ -8389,7 +8391,7 @@
       <c r="AG138" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ138" s="83"/>
+      <c r="AJ138" s="79"/>
     </row>
     <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
@@ -8433,13 +8435,13 @@
       <c r="AA139" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB139" s="105"/>
-      <c r="AC139" s="105"/>
-      <c r="AD139" s="105"/>
-      <c r="AE139" s="105"/>
-      <c r="AF139" s="105"/>
+      <c r="AB139" s="101"/>
+      <c r="AC139" s="101"/>
+      <c r="AD139" s="101"/>
+      <c r="AE139" s="101"/>
+      <c r="AF139" s="101"/>
       <c r="AG139" s="34"/>
-      <c r="AJ139" s="83"/>
+      <c r="AJ139" s="79"/>
     </row>
     <row r="140" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
@@ -8501,11 +8503,11 @@
       <c r="AG140" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="AH140" s="222" t="s">
+      <c r="AH140" s="218" t="s">
         <v>199</v>
       </c>
       <c r="AI140" s="34"/>
-      <c r="AJ140" s="83"/>
+      <c r="AJ140" s="79"/>
     </row>
     <row r="141" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="56">
@@ -8517,13 +8519,13 @@
       <c r="C141" s="12">
         <v>42111</v>
       </c>
-      <c r="D141" s="101" t="s">
+      <c r="D141" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="E141" s="102" t="s">
+      <c r="E141" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="111"/>
+      <c r="F141" s="107"/>
       <c r="G141" s="59"/>
       <c r="H141" s="59"/>
       <c r="I141" s="59"/>
@@ -8544,7 +8546,7 @@
       <c r="X141" s="59"/>
       <c r="Y141" s="59"/>
       <c r="Z141" s="59"/>
-      <c r="AA141" s="106" t="s">
+      <c r="AA141" s="102" t="s">
         <v>83</v>
       </c>
       <c r="AB141" s="75" t="s">
@@ -8566,22 +8568,22 @@
         <v>14</v>
       </c>
       <c r="AH141" s="60"/>
-      <c r="AK141" s="265"/>
+      <c r="AK141" s="235"/>
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>139</v>
       </c>
-      <c r="B142" s="124" t="s">
+      <c r="B142" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="C142" s="120">
+      <c r="C142" s="116">
         <v>42114</v>
       </c>
-      <c r="D142" s="117" t="s">
+      <c r="D142" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="E142" s="104" t="s">
+      <c r="E142" s="100" t="s">
         <v>18</v>
       </c>
       <c r="F142" s="1"/>
@@ -8630,25 +8632,25 @@
       <c r="AI142" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ142" s="83"/>
+      <c r="AJ142" s="79"/>
     </row>
     <row r="143" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>140</v>
       </c>
-      <c r="B143" s="125" t="s">
+      <c r="B143" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="C143" s="121">
+      <c r="C143" s="117">
         <v>42114</v>
       </c>
-      <c r="D143" s="119" t="s">
+      <c r="D143" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="E143" s="115" t="s">
+      <c r="E143" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="F143" s="110"/>
+      <c r="F143" s="106"/>
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
       <c r="I143" s="29"/>
@@ -8676,27 +8678,27 @@
       <c r="AC143" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AD143" s="107"/>
-      <c r="AE143" s="107"/>
-      <c r="AF143" s="105"/>
+      <c r="AD143" s="103"/>
+      <c r="AE143" s="103"/>
+      <c r="AF143" s="101"/>
       <c r="AG143" s="28"/>
       <c r="AI143" s="28"/>
-      <c r="AJ143" s="83"/>
+      <c r="AJ143" s="79"/>
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="32">
         <v>141</v>
       </c>
-      <c r="B144" s="126" t="s">
+      <c r="B144" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="C144" s="123">
+      <c r="C144" s="119">
         <v>42125</v>
       </c>
-      <c r="D144" s="118" t="s">
+      <c r="D144" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="E144" s="116" t="s">
+      <c r="E144" s="112" t="s">
         <v>206</v>
       </c>
       <c r="F144" s="1"/>
@@ -8731,16 +8733,16 @@
       <c r="AE144" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AF144" s="108" t="s">
+      <c r="AF144" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AG144" s="108" t="s">
+      <c r="AG144" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AH144" s="108" t="s">
+      <c r="AH144" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AI144" s="223" t="s">
+      <c r="AI144" s="219" t="s">
         <v>15</v>
       </c>
       <c r="AJ144" s="15" t="s">
@@ -8751,19 +8753,19 @@
       <c r="A145" s="3">
         <v>142</v>
       </c>
-      <c r="B145" s="125" t="s">
+      <c r="B145" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="C145" s="121">
+      <c r="C145" s="117">
         <v>42125</v>
       </c>
-      <c r="D145" s="119" t="s">
+      <c r="D145" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="E145" s="115" t="s">
+      <c r="E145" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F145" s="110"/>
+      <c r="F145" s="106"/>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
       <c r="I145" s="29"/>
@@ -8795,24 +8797,24 @@
       <c r="AE145" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AF145" s="107"/>
+      <c r="AF145" s="103"/>
       <c r="AG145" s="34"/>
-      <c r="AJ145" s="84"/>
+      <c r="AJ145" s="80"/>
     </row>
     <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" s="32">
         <v>143</v>
       </c>
-      <c r="B146" s="126" t="s">
+      <c r="B146" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="C146" s="122">
+      <c r="C146" s="118">
         <v>42128</v>
       </c>
-      <c r="D146" s="118" t="s">
+      <c r="D146" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="E146" s="116" t="s">
+      <c r="E146" s="112" t="s">
         <v>111</v>
       </c>
       <c r="F146" s="1"/>
@@ -8845,29 +8847,29 @@
       <c r="AE146" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AF146" s="105"/>
+      <c r="AF146" s="101"/>
       <c r="AG146" s="60"/>
       <c r="AH146" s="60"/>
       <c r="AI146" s="60"/>
-      <c r="AJ146" s="83"/>
+      <c r="AJ146" s="79"/>
     </row>
     <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" s="69">
         <v>144</v>
       </c>
-      <c r="B147" s="100" t="s">
+      <c r="B147" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C147" s="122">
+      <c r="C147" s="118">
         <v>42128</v>
       </c>
-      <c r="D147" s="118" t="s">
+      <c r="D147" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="E147" s="103" t="s">
+      <c r="E147" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F147" s="112"/>
+      <c r="F147" s="108"/>
       <c r="G147" s="13"/>
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
@@ -8909,22 +8911,22 @@
       <c r="AI147" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AJ147" s="83"/>
+      <c r="AJ147" s="79"/>
     </row>
     <row r="148" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>145</v>
       </c>
-      <c r="B148" s="100" t="s">
+      <c r="B148" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="C148" s="121">
+      <c r="C148" s="117">
         <v>42128</v>
       </c>
-      <c r="D148" s="119" t="s">
+      <c r="D148" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="E148" s="115" t="s">
+      <c r="E148" s="111" t="s">
         <v>212</v>
       </c>
       <c r="F148" s="1"/>
@@ -8960,25 +8962,25 @@
       <c r="AF148" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ148" s="83"/>
+      <c r="AJ148" s="79"/>
     </row>
     <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="32">
         <v>146</v>
       </c>
-      <c r="B149" s="126" t="s">
+      <c r="B149" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="C149" s="122">
+      <c r="C149" s="118">
         <v>42132</v>
       </c>
-      <c r="D149" s="118" t="s">
+      <c r="D149" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="E149" s="116" t="s">
+      <c r="E149" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="F149" s="109"/>
+      <c r="F149" s="105"/>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
@@ -9006,34 +9008,34 @@
       <c r="AE149" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AF149" s="108" t="s">
+      <c r="AF149" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AG149" s="108" t="s">
+      <c r="AG149" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AH149" s="108" t="s">
+      <c r="AH149" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AI149" s="202" t="s">
+      <c r="AI149" s="198" t="s">
         <v>194</v>
       </c>
-      <c r="AJ149" s="83"/>
+      <c r="AJ149" s="79"/>
     </row>
     <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" s="69">
         <v>147</v>
       </c>
-      <c r="B150" s="100" t="s">
+      <c r="B150" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C150" s="122">
+      <c r="C150" s="118">
         <v>42132</v>
       </c>
-      <c r="D150" s="118" t="s">
+      <c r="D150" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="E150" s="113" t="s">
+      <c r="E150" s="109" t="s">
         <v>13</v>
       </c>
       <c r="F150" s="1"/>
@@ -9067,22 +9069,22 @@
       <c r="AF150" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ150" s="83"/>
+      <c r="AJ150" s="79"/>
     </row>
     <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>148</v>
       </c>
-      <c r="B151" s="100" t="s">
+      <c r="B151" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C151" s="122">
+      <c r="C151" s="118">
         <v>42132</v>
       </c>
-      <c r="D151" s="118" t="s">
+      <c r="D151" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="E151" s="113" t="s">
+      <c r="E151" s="109" t="s">
         <v>32</v>
       </c>
       <c r="F151" s="1"/>
@@ -9116,22 +9118,22 @@
       <c r="AF151" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ151" s="83"/>
+      <c r="AJ151" s="79"/>
     </row>
     <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>149</v>
       </c>
-      <c r="B152" s="100" t="s">
+      <c r="B152" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="C152" s="122">
+      <c r="C152" s="118">
         <v>42132</v>
       </c>
-      <c r="D152" s="118" t="s">
+      <c r="D152" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="E152" s="113" t="s">
+      <c r="E152" s="109" t="s">
         <v>21</v>
       </c>
       <c r="F152" s="1"/>
@@ -9165,22 +9167,22 @@
       <c r="AF152" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ152" s="83"/>
+      <c r="AJ152" s="79"/>
     </row>
     <row r="153" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="31">
         <v>150</v>
       </c>
-      <c r="B153" s="125" t="s">
+      <c r="B153" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="C153" s="121">
+      <c r="C153" s="117">
         <v>42132</v>
       </c>
-      <c r="D153" s="119" t="s">
+      <c r="D153" s="115" t="s">
         <v>219</v>
       </c>
-      <c r="E153" s="114" t="s">
+      <c r="E153" s="110" t="s">
         <v>50</v>
       </c>
       <c r="F153" s="25"/>
@@ -9215,16 +9217,16 @@
         <v>14</v>
       </c>
       <c r="AH153" s="28"/>
-      <c r="AJ153" s="83"/>
+      <c r="AJ153" s="79"/>
     </row>
     <row r="154" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="31">
         <v>151</v>
       </c>
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="124" t="s">
         <v>221</v>
       </c>
-      <c r="C154" s="127">
+      <c r="C154" s="123">
         <v>42142</v>
       </c>
       <c r="D154" s="49" t="s">
@@ -9266,22 +9268,22 @@
         <v>118</v>
       </c>
       <c r="AI154" s="60"/>
-      <c r="AJ154" s="83"/>
+      <c r="AJ154" s="79"/>
     </row>
     <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>152</v>
       </c>
-      <c r="B155" s="187" t="s">
+      <c r="B155" s="183" t="s">
         <v>275</v>
       </c>
-      <c r="C155" s="194">
+      <c r="C155" s="190">
         <v>42146</v>
       </c>
-      <c r="D155" s="190" t="s">
+      <c r="D155" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="E155" s="189" t="s">
+      <c r="E155" s="185" t="s">
         <v>13</v>
       </c>
       <c r="F155" s="1"/>
@@ -9317,28 +9319,28 @@
       <c r="AH155" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AI155" s="224" t="s">
+      <c r="AI155" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="AJ155" s="224" t="s">
+      <c r="AJ155" s="220" t="s">
         <v>155</v>
       </c>
-      <c r="AK155" s="265"/>
+      <c r="AK155" s="235"/>
     </row>
     <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>153</v>
       </c>
-      <c r="B156" s="187" t="s">
+      <c r="B156" s="183" t="s">
         <v>275</v>
       </c>
       <c r="C156" s="12">
         <v>42146</v>
       </c>
-      <c r="D156" s="190" t="s">
+      <c r="D156" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="E156" s="189" t="s">
+      <c r="E156" s="185" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="1"/>
@@ -9377,22 +9379,22 @@
       <c r="AI156" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ156" s="83"/>
+      <c r="AJ156" s="79"/>
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>154</v>
       </c>
-      <c r="B157" s="187" t="s">
+      <c r="B157" s="183" t="s">
         <v>275</v>
       </c>
       <c r="C157" s="12">
         <v>42146</v>
       </c>
-      <c r="D157" s="190" t="s">
+      <c r="D157" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="E157" s="189" t="s">
+      <c r="E157" s="185" t="s">
         <v>282</v>
       </c>
       <c r="F157" s="1"/>
@@ -9425,25 +9427,25 @@
       <c r="AG157" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AH157" s="95" t="s">
+      <c r="AH157" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="AJ157" s="83"/>
+      <c r="AJ157" s="79"/>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>155</v>
       </c>
-      <c r="B158" s="187" t="s">
+      <c r="B158" s="183" t="s">
         <v>275</v>
       </c>
       <c r="C158" s="12">
         <v>42146</v>
       </c>
-      <c r="D158" s="190" t="s">
+      <c r="D158" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="E158" s="189" t="s">
+      <c r="E158" s="185" t="s">
         <v>283</v>
       </c>
       <c r="F158" s="1"/>
@@ -9482,13 +9484,13 @@
       <c r="AI158" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ158" s="83"/>
+      <c r="AJ158" s="79"/>
     </row>
     <row r="159" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="31">
         <v>156</v>
       </c>
-      <c r="B159" s="192" t="s">
+      <c r="B159" s="188" t="s">
         <v>275</v>
       </c>
       <c r="C159" s="22">
@@ -9497,7 +9499,7 @@
       <c r="D159" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="E159" s="193" t="s">
+      <c r="E159" s="189" t="s">
         <v>10</v>
       </c>
       <c r="F159" s="1"/>
@@ -9533,10 +9535,10 @@
       <c r="AH159" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AI159" s="225" t="s">
+      <c r="AI159" s="221" t="s">
         <v>15</v>
       </c>
-      <c r="AJ159" s="95" t="s">
+      <c r="AJ159" s="91" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9544,7 +9546,7 @@
       <c r="A160" s="56">
         <v>157</v>
       </c>
-      <c r="B160" s="128" t="s">
+      <c r="B160" s="124" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="71">
@@ -9553,10 +9555,10 @@
       <c r="D160" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="E160" s="226" t="s">
+      <c r="E160" s="222" t="s">
         <v>301</v>
       </c>
-      <c r="F160" s="227"/>
+      <c r="F160" s="223"/>
       <c r="G160" s="59"/>
       <c r="H160" s="59"/>
       <c r="I160" s="59"/>
@@ -9584,19 +9586,19 @@
       <c r="AE160" s="29"/>
       <c r="AF160" s="29"/>
       <c r="AG160" s="59"/>
-      <c r="AH160" s="106" t="s">
+      <c r="AH160" s="102" t="s">
         <v>83</v>
       </c>
       <c r="AI160" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AJ160" s="85"/>
+      <c r="AJ160" s="81"/>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>158</v>
       </c>
-      <c r="B161" s="187" t="s">
+      <c r="B161" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C161" s="12">
@@ -9605,10 +9607,10 @@
       <c r="D161" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E161" s="189" t="s">
+      <c r="E161" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="F161" s="112"/>
+      <c r="F161" s="108"/>
       <c r="G161" s="35"/>
       <c r="H161" s="35"/>
       <c r="I161" s="35"/>
@@ -9640,7 +9642,7 @@
       <c r="AI161" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AJ161" s="86" t="s">
+      <c r="AJ161" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9648,7 +9650,7 @@
       <c r="A162" s="3">
         <v>159</v>
       </c>
-      <c r="B162" s="187" t="s">
+      <c r="B162" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C162" s="12">
@@ -9657,10 +9659,10 @@
       <c r="D162" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E162" s="189" t="s">
+      <c r="E162" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="F162" s="112"/>
+      <c r="F162" s="108"/>
       <c r="G162" s="13"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
@@ -9692,7 +9694,7 @@
       <c r="AI162" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ162" s="86" t="s">
+      <c r="AJ162" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9700,7 +9702,7 @@
       <c r="A163" s="3">
         <v>160</v>
       </c>
-      <c r="B163" s="187" t="s">
+      <c r="B163" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C163" s="12">
@@ -9709,10 +9711,10 @@
       <c r="D163" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E163" s="189" t="s">
+      <c r="E163" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="F163" s="112"/>
+      <c r="F163" s="108"/>
       <c r="G163" s="13"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
@@ -9744,7 +9746,7 @@
       <c r="AI163" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ163" s="86" t="s">
+      <c r="AJ163" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9752,7 +9754,7 @@
       <c r="A164" s="3">
         <v>161</v>
       </c>
-      <c r="B164" s="187" t="s">
+      <c r="B164" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C164" s="12">
@@ -9761,10 +9763,10 @@
       <c r="D164" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E164" s="189" t="s">
+      <c r="E164" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="F164" s="112"/>
+      <c r="F164" s="108"/>
       <c r="G164" s="13"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
@@ -9796,7 +9798,7 @@
       <c r="AI164" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ164" s="86" t="s">
+      <c r="AJ164" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9804,7 +9806,7 @@
       <c r="A165" s="3">
         <v>162</v>
       </c>
-      <c r="B165" s="187" t="s">
+      <c r="B165" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C165" s="12">
@@ -9813,10 +9815,10 @@
       <c r="D165" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E165" s="189" t="s">
+      <c r="E165" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="F165" s="112"/>
+      <c r="F165" s="108"/>
       <c r="G165" s="13"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
@@ -9848,7 +9850,7 @@
       <c r="AI165" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ165" s="86" t="s">
+      <c r="AJ165" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9856,7 +9858,7 @@
       <c r="A166" s="3">
         <v>163</v>
       </c>
-      <c r="B166" s="187" t="s">
+      <c r="B166" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C166" s="12">
@@ -9865,10 +9867,10 @@
       <c r="D166" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E166" s="189" t="s">
+      <c r="E166" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="F166" s="112"/>
+      <c r="F166" s="108"/>
       <c r="G166" s="13"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
@@ -9900,7 +9902,7 @@
       <c r="AI166" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ166" s="86" t="s">
+      <c r="AJ166" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9908,7 +9910,7 @@
       <c r="A167" s="3">
         <v>164</v>
       </c>
-      <c r="B167" s="187" t="s">
+      <c r="B167" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C167" s="12">
@@ -9917,10 +9919,10 @@
       <c r="D167" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E167" s="189" t="s">
+      <c r="E167" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="F167" s="112"/>
+      <c r="F167" s="108"/>
       <c r="G167" s="13"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
@@ -9952,7 +9954,7 @@
       <c r="AI167" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ167" s="86" t="s">
+      <c r="AJ167" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9960,7 +9962,7 @@
       <c r="A168" s="3">
         <v>165</v>
       </c>
-      <c r="B168" s="187" t="s">
+      <c r="B168" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C168" s="12">
@@ -9969,10 +9971,10 @@
       <c r="D168" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E168" s="189" t="s">
+      <c r="E168" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="F168" s="112"/>
+      <c r="F168" s="108"/>
       <c r="G168" s="13"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
@@ -10004,7 +10006,7 @@
       <c r="AI168" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ168" s="86" t="s">
+      <c r="AJ168" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10012,7 +10014,7 @@
       <c r="A169" s="3">
         <v>166</v>
       </c>
-      <c r="B169" s="187" t="s">
+      <c r="B169" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C169" s="12">
@@ -10021,10 +10023,10 @@
       <c r="D169" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E169" s="189" t="s">
+      <c r="E169" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="F169" s="112"/>
+      <c r="F169" s="108"/>
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
@@ -10056,7 +10058,7 @@
       <c r="AI169" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ169" s="86" t="s">
+      <c r="AJ169" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10064,7 +10066,7 @@
       <c r="A170" s="3">
         <v>167</v>
       </c>
-      <c r="B170" s="187" t="s">
+      <c r="B170" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C170" s="12">
@@ -10073,10 +10075,10 @@
       <c r="D170" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E170" s="189" t="s">
+      <c r="E170" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="F170" s="112"/>
+      <c r="F170" s="108"/>
       <c r="G170" s="13"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
@@ -10108,7 +10110,7 @@
       <c r="AI170" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ170" s="86" t="s">
+      <c r="AJ170" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10116,7 +10118,7 @@
       <c r="A171" s="3">
         <v>168</v>
       </c>
-      <c r="B171" s="187" t="s">
+      <c r="B171" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C171" s="12">
@@ -10125,10 +10127,10 @@
       <c r="D171" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E171" s="189" t="s">
+      <c r="E171" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="F171" s="112"/>
+      <c r="F171" s="108"/>
       <c r="G171" s="13"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
@@ -10160,7 +10162,7 @@
       <c r="AI171" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ171" s="86" t="s">
+      <c r="AJ171" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10168,7 +10170,7 @@
       <c r="A172" s="3">
         <v>169</v>
       </c>
-      <c r="B172" s="187" t="s">
+      <c r="B172" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C172" s="12">
@@ -10177,10 +10179,10 @@
       <c r="D172" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E172" s="189" t="s">
+      <c r="E172" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="F172" s="112"/>
+      <c r="F172" s="108"/>
       <c r="G172" s="13"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
@@ -10212,7 +10214,7 @@
       <c r="AI172" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ172" s="86" t="s">
+      <c r="AJ172" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10220,7 +10222,7 @@
       <c r="A173" s="3">
         <v>170</v>
       </c>
-      <c r="B173" s="187" t="s">
+      <c r="B173" s="183" t="s">
         <v>289</v>
       </c>
       <c r="C173" s="12">
@@ -10229,10 +10231,10 @@
       <c r="D173" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E173" s="189" t="s">
+      <c r="E173" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="F173" s="112"/>
+      <c r="F173" s="108"/>
       <c r="G173" s="13"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
@@ -10264,7 +10266,7 @@
       <c r="AI173" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="AJ173" s="86" t="s">
+      <c r="AJ173" s="82" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10272,7 +10274,7 @@
       <c r="A174" s="31">
         <v>171</v>
       </c>
-      <c r="B174" s="192" t="s">
+      <c r="B174" s="188" t="s">
         <v>289</v>
       </c>
       <c r="C174" s="22">
@@ -10281,10 +10283,10 @@
       <c r="D174" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="E174" s="193" t="s">
+      <c r="E174" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="F174" s="80"/>
+      <c r="F174" s="76"/>
       <c r="G174" s="29"/>
       <c r="H174" s="29"/>
       <c r="I174" s="29"/>
@@ -10316,19 +10318,19 @@
       <c r="AI174" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AJ174" s="86" t="s">
+      <c r="AJ174" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="230" t="s">
+      <c r="A175" s="260" t="s">
         <v>303</v>
       </c>
-      <c r="B175" s="231"/>
-      <c r="C175" s="231"/>
-      <c r="D175" s="231"/>
-      <c r="E175" s="231"/>
-      <c r="F175" s="227"/>
+      <c r="B175" s="261"/>
+      <c r="C175" s="261"/>
+      <c r="D175" s="261"/>
+      <c r="E175" s="261"/>
+      <c r="F175" s="223"/>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
@@ -10358,15 +10360,15 @@
       <c r="AG175" s="13"/>
       <c r="AH175" s="13"/>
       <c r="AI175" s="13"/>
-      <c r="AJ175" s="277"/>
+      <c r="AJ175" s="247"/>
     </row>
     <row r="176" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="272"/>
-      <c r="B177" s="276" t="s">
+      <c r="A177" s="242"/>
+      <c r="B177" s="246" t="s">
         <v>319</v>
       </c>
-      <c r="C177" s="166" t="s">
+      <c r="C177" s="162" t="s">
         <v>155</v>
       </c>
       <c r="D177" t="s">
@@ -10377,21 +10379,21 @@
       <c r="A178" s="34"/>
     </row>
     <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="273"/>
+      <c r="A179" s="243"/>
       <c r="B179" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="274"/>
+      <c r="A181" s="244"/>
       <c r="B181" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="275"/>
+      <c r="A183" s="245"/>
       <c r="B183" t="s">
         <v>322</v>
       </c>
@@ -10410,7 +10412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10427,155 +10429,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="265" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="232" t="s">
+      <c r="B1" s="265" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="C1" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="D1" s="269" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="239" t="s">
+      <c r="E1" s="264" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="238" t="s">
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="274" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="239"/>
-      <c r="Q1" s="239"/>
-      <c r="R1" s="239"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="239"/>
-      <c r="U1" s="239"/>
-      <c r="V1" s="239"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="240"/>
+      <c r="P1" s="264"/>
+      <c r="Q1" s="264"/>
+      <c r="R1" s="264"/>
+      <c r="S1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="275"/>
     </row>
     <row r="2" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="232"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="139" t="s">
+      <c r="A2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="136" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="136" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="140" t="s">
+      <c r="K2" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="140" t="s">
+      <c r="L2" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="140" t="s">
+      <c r="M2" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="142" t="s">
+      <c r="N2" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="271" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="134">
         <v>42023</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="133">
         <v>1</v>
       </c>
-      <c r="E3" s="152" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="H3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="K3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="153" t="s">
+      <c r="E3" s="148" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="N3" s="154" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="145"/>
-      <c r="X3" s="145"/>
+      <c r="N3" s="150" t="s">
+        <v>240</v>
+      </c>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="234"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="272"/>
+      <c r="B4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="140">
         <v>42025</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="94">
         <v>3</v>
       </c>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F4" s="23" t="s">
@@ -10605,135 +10607,135 @@
       <c r="N4" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="145"/>
-      <c r="X4" s="145"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="273" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="130">
         <v>42030</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="132">
         <v>0.75</v>
       </c>
-      <c r="E5" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="J5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="K5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="M5" s="156" t="s">
+      <c r="E5" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="J5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="M5" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="N5" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
+      <c r="N5" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="237"/>
-      <c r="B6" s="130" t="s">
+      <c r="A6" s="273"/>
+      <c r="B6" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="130">
         <v>42032</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="132">
         <v>3</v>
       </c>
-      <c r="E6" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="J6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="K6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="M6" s="159" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" s="160" t="s">
-        <v>240</v>
-      </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="145"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="145"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
+      <c r="E6" s="154" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="L6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="141"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141"/>
+      <c r="X6" s="141"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="237"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="273"/>
+      <c r="B7" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="140">
         <v>42033</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="94">
         <v>2</v>
       </c>
-      <c r="E7" s="150" t="s">
+      <c r="E7" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F7" s="23" t="s">
@@ -10763,317 +10765,317 @@
       <c r="N7" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="235" t="s">
+      <c r="A8" s="262" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="130">
         <v>42037</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="132">
         <v>1</v>
       </c>
-      <c r="E8" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="M8" s="162" t="s">
+      <c r="E8" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="J8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="N8" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
+      <c r="N8" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="241"/>
-      <c r="B9" s="130" t="s">
+      <c r="A9" s="276"/>
+      <c r="B9" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="130">
         <v>42039</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="132">
         <v>3</v>
       </c>
-      <c r="E9" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="I9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="K9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="L9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="N9" s="160" t="s">
+      <c r="E9" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="N9" s="156" t="s">
         <v>241</v>
       </c>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236"/>
-      <c r="B10" s="131" t="s">
+      <c r="A10" s="263"/>
+      <c r="B10" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="140">
         <v>42041</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="94">
         <v>1</v>
       </c>
-      <c r="E10" s="195"/>
+      <c r="E10" s="191"/>
       <c r="F10" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
       <c r="I10" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="141"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="130">
         <v>42044</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="132">
         <v>0.75</v>
       </c>
-      <c r="E11" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="J11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="K11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="M11" s="162" t="s">
+      <c r="E11" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="K11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="M11" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="N11" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="145"/>
+      <c r="N11" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O11" s="141"/>
+      <c r="P11" s="141"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="141"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="242"/>
-      <c r="B12" s="136" t="s">
+      <c r="A12" s="278"/>
+      <c r="B12" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="130">
         <v>42046</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="132">
         <v>1.75</v>
       </c>
-      <c r="E12" s="163" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="J12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="K12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="L12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="M12" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="N12" s="160" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
+      <c r="E12" s="159" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="J12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="L12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="M12" s="160" t="s">
+        <v>240</v>
+      </c>
+      <c r="N12" s="156" t="s">
+        <v>240</v>
+      </c>
+      <c r="O12" s="141"/>
+      <c r="P12" s="141"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="141"/>
+      <c r="S12" s="141"/>
+      <c r="T12" s="141"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="141"/>
+      <c r="W12" s="141"/>
+      <c r="X12" s="141"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="234"/>
-      <c r="B13" s="98" t="s">
+      <c r="A13" s="272"/>
+      <c r="B13" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="140">
         <v>42046</v>
       </c>
-      <c r="D13" s="136">
+      <c r="D13" s="132">
         <v>3</v>
       </c>
-      <c r="E13" s="150" t="s">
+      <c r="E13" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
       <c r="I13" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="193"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="130">
         <v>42053</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="144">
         <v>3</v>
       </c>
-      <c r="E14" s="151" t="s">
+      <c r="E14" s="147" t="s">
         <v>240</v>
       </c>
       <c r="F14" s="72" t="s">
@@ -11103,83 +11105,83 @@
       <c r="N14" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="277" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="145">
         <v>42058</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="132">
         <v>1</v>
       </c>
-      <c r="E15" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="162" t="s">
+      <c r="E15" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="H15" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="I15" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="K15" s="162" t="s">
+      <c r="G15" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="K15" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="162" t="s">
+      <c r="L15" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="M15" s="162" t="s">
+      <c r="M15" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="N15" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
+      <c r="N15" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="141"/>
+      <c r="S15" s="141"/>
+      <c r="T15" s="141"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="141"/>
+      <c r="W15" s="141"/>
+      <c r="X15" s="141"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="131" t="s">
+      <c r="A16" s="272"/>
+      <c r="B16" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="140">
         <v>42060</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="94">
         <v>1.75</v>
       </c>
-      <c r="E16" s="150" t="s">
+      <c r="E16" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F16" s="23" t="s">
@@ -11209,83 +11211,83 @@
       <c r="N16" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="141"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="262" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="130">
         <v>42065</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="132">
         <v>1</v>
       </c>
-      <c r="E17" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="162" t="s">
+      <c r="E17" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="M17" s="162" t="s">
+      <c r="H17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="158" t="s">
         <v>241</v>
       </c>
-      <c r="N17" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="145"/>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="145"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
+      <c r="N17" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="141"/>
+      <c r="P17" s="141"/>
+      <c r="Q17" s="141"/>
+      <c r="R17" s="141"/>
+      <c r="S17" s="141"/>
+      <c r="T17" s="141"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="141"/>
+      <c r="W17" s="141"/>
+      <c r="X17" s="141"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="236"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="263"/>
+      <c r="B18" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="140">
         <v>42067</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="94">
         <v>2</v>
       </c>
-      <c r="E18" s="150" t="s">
+      <c r="E18" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F18" s="23" t="s">
@@ -11315,83 +11317,83 @@
       <c r="N18" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="145"/>
-      <c r="P18" s="145"/>
-      <c r="Q18" s="145"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="141"/>
+      <c r="Q18" s="141"/>
+      <c r="R18" s="141"/>
+      <c r="S18" s="141"/>
+      <c r="T18" s="141"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="141"/>
+      <c r="W18" s="141"/>
+      <c r="X18" s="141"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="235" t="s">
+      <c r="A19" s="262" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="130">
         <v>42072</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="132">
         <v>0.5</v>
       </c>
-      <c r="E19" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="H19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="I19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="J19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="M19" s="162" t="s">
-        <v>240</v>
-      </c>
-      <c r="N19" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="145"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
+      <c r="E19" s="157" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="H19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="K19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" s="158" t="s">
+        <v>240</v>
+      </c>
+      <c r="N19" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="141"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="141"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="141"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="236"/>
-      <c r="B20" s="131" t="s">
+      <c r="A20" s="263"/>
+      <c r="B20" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="140">
         <v>42074</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="94">
         <v>1.75</v>
       </c>
-      <c r="E20" s="150" t="s">
+      <c r="E20" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F20" s="23" t="s">
@@ -11400,7 +11402,7 @@
       <c r="G20" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="H20" s="196"/>
+      <c r="H20" s="192"/>
       <c r="I20" s="23" t="s">
         <v>240</v>
       </c>
@@ -11419,32 +11421,32 @@
       <c r="N20" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O20" s="145"/>
-      <c r="P20" s="145"/>
-      <c r="Q20" s="145"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="141"/>
+      <c r="Q20" s="141"/>
+      <c r="R20" s="141"/>
+      <c r="S20" s="141"/>
+      <c r="T20" s="141"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="141"/>
+      <c r="W20" s="141"/>
+      <c r="X20" s="141"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="174" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="165">
+      <c r="C21" s="161">
         <v>42080</v>
       </c>
-      <c r="D21" s="148">
+      <c r="D21" s="144">
         <v>1</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="198"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="72" t="s">
         <v>240</v>
       </c>
@@ -11454,180 +11456,180 @@
       <c r="I21" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
       <c r="N21" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="O21" s="145"/>
-      <c r="P21" s="145"/>
-      <c r="Q21" s="145"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="141"/>
+      <c r="S21" s="141"/>
+      <c r="T21" s="141"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="141"/>
+      <c r="W21" s="141"/>
+      <c r="X21" s="141"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="165"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="141"/>
+      <c r="W22" s="141"/>
+      <c r="X22" s="141"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="176" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="164"/>
+      <c r="L23" s="164"/>
+      <c r="M23" s="164"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="141"/>
+      <c r="W23" s="141"/>
+      <c r="X23" s="141"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="145"/>
-      <c r="T24" s="145"/>
-      <c r="U24" s="145"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="164"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="164"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="165"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="141"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="277" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="130">
         <v>42107</v>
       </c>
-      <c r="D25" s="146">
+      <c r="D25" s="142">
         <v>0.5</v>
       </c>
-      <c r="E25" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="H25" s="156" t="s">
+      <c r="E25" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="K25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="L25" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="M25" s="156" t="s">
+      <c r="I25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="N25" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" s="145"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
+      <c r="N25" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" s="141"/>
+      <c r="P25" s="141"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="234"/>
-      <c r="B26" s="136" t="s">
+      <c r="A26" s="272"/>
+      <c r="B26" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="130">
         <v>42111</v>
       </c>
-      <c r="D26" s="136">
+      <c r="D26" s="132">
         <v>1</v>
       </c>
-      <c r="E26" s="150" t="s">
+      <c r="E26" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F26" s="23" t="s">
@@ -11654,34 +11656,34 @@
       <c r="M26" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="N26" s="170" t="s">
-        <v>240</v>
-      </c>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145"/>
-      <c r="T26" s="145"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
+      <c r="N26" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="141"/>
+      <c r="X26" s="141"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="177" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="167">
         <v>42114</v>
       </c>
-      <c r="D27" s="148">
+      <c r="D27" s="144">
         <v>0.5</v>
       </c>
-      <c r="E27" s="151" t="s">
+      <c r="E27" s="147" t="s">
         <v>240</v>
       </c>
       <c r="F27" s="72" t="s">
@@ -11711,31 +11713,31 @@
       <c r="N27" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="141"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="141"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="168">
         <v>42125</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D28" s="144">
         <v>0.75</v>
       </c>
-      <c r="E28" s="151" t="s">
+      <c r="E28" s="147" t="s">
         <v>240</v>
       </c>
       <c r="F28" s="72" t="s">
@@ -11756,92 +11758,92 @@
       <c r="K28" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="L28" s="147" t="s">
-        <v>240</v>
-      </c>
-      <c r="M28" s="184" t="s">
+      <c r="L28" s="143" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" s="180" t="s">
         <v>241</v>
       </c>
       <c r="N28" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
+      <c r="T28" s="141"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="141"/>
+      <c r="W28" s="141"/>
+      <c r="X28" s="141"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="135">
+      <c r="C29" s="131">
         <v>42128</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="132">
         <v>0.5</v>
       </c>
-      <c r="E29" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" s="156" t="s">
+      <c r="E29" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F29" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="156" t="s">
+      <c r="H29" s="152" t="s">
         <v>241</v>
       </c>
-      <c r="I29" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="J29" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="L29" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="M29" s="185" t="s">
+      <c r="I29" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" s="181" t="s">
         <v>241</v>
       </c>
-      <c r="N29" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O29" s="145"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="145"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
+      <c r="N29" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
+      <c r="W29" s="141"/>
+      <c r="X29" s="141"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="234"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="272"/>
+      <c r="B30" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="173">
+      <c r="C30" s="169">
         <v>42132</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="94">
         <v>1</v>
       </c>
-      <c r="E30" s="150" t="s">
+      <c r="E30" s="146" t="s">
         <v>240</v>
       </c>
       <c r="F30" s="23" t="s">
@@ -11871,289 +11873,281 @@
       <c r="N30" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="145"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="141"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="141"/>
+      <c r="S30" s="141"/>
+      <c r="T30" s="141"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="141"/>
+      <c r="W30" s="141"/>
+      <c r="X30" s="141"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="165"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="141"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="141"/>
+      <c r="T31" s="141"/>
+      <c r="U31" s="141"/>
+      <c r="V31" s="141"/>
+      <c r="W31" s="141"/>
+      <c r="X31" s="141"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="249" t="s">
+      <c r="A32" s="280" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="130">
         <v>42142</v>
       </c>
-      <c r="D32" s="136">
+      <c r="D32" s="132">
         <v>1</v>
       </c>
-      <c r="E32" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="I32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="L32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="M32" s="156" t="s">
-        <v>240</v>
-      </c>
-      <c r="N32" s="157" t="s">
-        <v>240</v>
-      </c>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
+      <c r="E32" s="151" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="I32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="N32" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" s="141"/>
+      <c r="P32" s="141"/>
+      <c r="Q32" s="141"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="141"/>
+      <c r="T32" s="141"/>
+      <c r="U32" s="141"/>
+      <c r="V32" s="141"/>
+      <c r="W32" s="141"/>
+      <c r="X32" s="141"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="254"/>
-      <c r="B33" s="131" t="s">
+      <c r="A33" s="281"/>
+      <c r="B33" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="256">
+      <c r="C33" s="226">
         <v>42146</v>
       </c>
-      <c r="D33" s="257">
+      <c r="D33" s="227">
         <v>1.5</v>
       </c>
-      <c r="E33" s="258" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="H33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="I33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="J33" s="261" t="s">
+      <c r="E33" s="228" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="231" t="s">
         <v>241</v>
       </c>
-      <c r="K33" s="261" t="s">
+      <c r="K33" s="231" t="s">
         <v>241</v>
       </c>
-      <c r="L33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="M33" s="261" t="s">
-        <v>240</v>
-      </c>
-      <c r="N33" s="262" t="s">
-        <v>240</v>
-      </c>
-      <c r="O33" s="145"/>
-      <c r="P33" s="145"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="145"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
+      <c r="L33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" s="231" t="s">
+        <v>240</v>
+      </c>
+      <c r="N33" s="232" t="s">
+        <v>240</v>
+      </c>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="232" t="s">
+      <c r="A34" s="265" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="182" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="123">
         <v>42149</v>
       </c>
       <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="255" t="s">
-        <v>240</v>
-      </c>
-      <c r="F34" s="259" t="s">
+      <c r="E34" s="225" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="229" t="s">
         <v>241</v>
       </c>
-      <c r="G34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="H34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="J34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="K34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" s="259" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="260" t="s">
+      <c r="G34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" s="229" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" s="230" t="s">
         <v>241</v>
       </c>
-      <c r="N34" s="183" t="s">
-        <v>240</v>
-      </c>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
+      <c r="N34" s="179" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" s="141"/>
+      <c r="P34" s="141"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="141"/>
+      <c r="T34" s="141"/>
+      <c r="U34" s="141"/>
+      <c r="V34" s="141"/>
+      <c r="W34" s="141"/>
+      <c r="X34" s="141"/>
       <c r="Y34" s="34"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="284"/>
-      <c r="B35" s="282" t="s">
+      <c r="A35" s="279"/>
+      <c r="B35" s="252" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="283">
+      <c r="C35" s="253">
         <v>42153</v>
       </c>
-      <c r="D35" s="285">
+      <c r="D35" s="254">
         <v>1.5</v>
       </c>
-      <c r="E35" s="286" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="I35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="J35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" s="287" t="s">
+      <c r="E35" s="255" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="256" t="s">
         <v>241</v>
       </c>
-      <c r="L35" s="287" t="s">
-        <v>240</v>
-      </c>
-      <c r="M35" s="288" t="s">
-        <v>240</v>
-      </c>
-      <c r="N35" s="289" t="s">
+      <c r="L35" s="256" t="s">
+        <v>240</v>
+      </c>
+      <c r="M35" s="257" t="s">
+        <v>240</v>
+      </c>
+      <c r="N35" s="258" t="s">
         <v>240</v>
       </c>
       <c r="Y35" s="34"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="278"/>
+      <c r="A38" s="248"/>
       <c r="B38" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="279"/>
+      <c r="A40" s="249"/>
       <c r="B40" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="280"/>
+      <c r="A42" s="250"/>
       <c r="B42" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="281"/>
+      <c r="A44" s="251"/>
       <c r="B44" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="O1:X1"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
@@ -12163,6 +12157,14 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="P15 Q17 E3:N38 P34">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
@@ -12196,100 +12198,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="265" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="251" t="s">
+      <c r="B1" s="282" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="C1" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="246" t="s">
+      <c r="D1" s="269" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="253" t="s">
+      <c r="E1" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
-      <c r="N1" s="240"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="275"/>
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="243"/>
-      <c r="B2" s="252"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="139" t="s">
+      <c r="A2" s="266"/>
+      <c r="B2" s="283"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="135" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="140" t="s">
+      <c r="G2" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="136" t="s">
         <v>245</v>
       </c>
-      <c r="I2" s="140" t="s">
+      <c r="I2" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="136" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="140" t="s">
+      <c r="K2" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="L2" s="140" t="s">
+      <c r="L2" s="136" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="140" t="s">
+      <c r="M2" s="136" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="142" t="s">
+      <c r="N2" s="138" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="271" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="134">
         <v>42023</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="133">
         <v>1</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="201" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="197" t="s">
         <v>243</v>
       </c>
-      <c r="N3" s="143"/>
+      <c r="N3" s="139"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="234"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="272"/>
+      <c r="B4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="140">
         <v>42025</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="94">
         <v>3</v>
       </c>
       <c r="E4" s="28"/>
@@ -12304,16 +12306,16 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="277" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="130">
         <v>42030</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="132">
         <v>0.75</v>
       </c>
       <c r="M5" s="20" t="s">
@@ -12322,732 +12324,727 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="242"/>
-      <c r="B6" s="130" t="s">
+      <c r="A6" s="278"/>
+      <c r="B6" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="130">
         <v>42032</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="132">
         <v>3</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="204"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="199"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="200"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="234"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="272"/>
+      <c r="B7" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="144">
+      <c r="C7" s="140">
         <v>42033</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="94">
         <v>2</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="206"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="202"/>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="233" t="s">
+      <c r="A8" s="277" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="130">
         <v>42037</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="132">
         <v>1</v>
       </c>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
-      <c r="J8" s="203"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="207" t="s">
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+      <c r="G8" s="199"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="199"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="203" t="s">
         <v>247</v>
       </c>
-      <c r="N8" s="204"/>
+      <c r="N8" s="200"/>
     </row>
     <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="242"/>
-      <c r="B9" s="130" t="s">
+      <c r="A9" s="278"/>
+      <c r="B9" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="130">
         <v>42039</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="132">
         <v>3</v>
       </c>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="208" t="s">
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="204" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="234"/>
-      <c r="B10" s="131" t="s">
+      <c r="A10" s="272"/>
+      <c r="B10" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="144">
+      <c r="C10" s="140">
         <v>42041</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="94">
         <v>1</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="220"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="201"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="216"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="277" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="130">
         <v>42044</v>
       </c>
-      <c r="D11" s="136">
+      <c r="D11" s="132">
         <v>0.75</v>
       </c>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="203"/>
-      <c r="K11" s="203"/>
-      <c r="L11" s="203"/>
-      <c r="M11" s="207" t="s">
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="203" t="s">
         <v>249</v>
       </c>
-      <c r="N11" s="204"/>
+      <c r="N11" s="200"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="242"/>
-      <c r="B12" s="136" t="s">
+      <c r="A12" s="278"/>
+      <c r="B12" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="130">
         <v>42046</v>
       </c>
-      <c r="D12" s="136">
+      <c r="D12" s="132">
         <v>1.75</v>
       </c>
-      <c r="E12" s="203"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="203"/>
-      <c r="K12" s="203"/>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="204"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="200"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="234"/>
-      <c r="B13" s="98" t="s">
+      <c r="A13" s="272"/>
+      <c r="B13" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="144">
+      <c r="C13" s="140">
         <v>42046</v>
       </c>
-      <c r="D13" s="136">
+      <c r="D13" s="132">
         <v>3</v>
       </c>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="220"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="216"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="130">
         <v>42053</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="144">
         <v>3</v>
       </c>
-      <c r="E14" s="218"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="210"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="206"/>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="277" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="149">
+      <c r="C15" s="145">
         <v>42058</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="132">
         <v>1</v>
       </c>
-      <c r="E15" s="203"/>
-      <c r="F15" s="217" t="s">
+      <c r="E15" s="199"/>
+      <c r="F15" s="213" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="203"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="207" t="s">
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="203" t="s">
         <v>254</v>
       </c>
-      <c r="L15" s="207" t="s">
+      <c r="L15" s="203" t="s">
         <v>255</v>
       </c>
-      <c r="M15" s="207" t="s">
+      <c r="M15" s="203" t="s">
         <v>256</v>
       </c>
-      <c r="N15" s="204"/>
+      <c r="N15" s="200"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="234"/>
-      <c r="B16" s="131" t="s">
+      <c r="A16" s="272"/>
+      <c r="B16" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="144">
+      <c r="C16" s="140">
         <v>42060</v>
       </c>
-      <c r="D16" s="98">
+      <c r="D16" s="94">
         <v>1.75</v>
       </c>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="206"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="233" t="s">
+      <c r="A17" s="277" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="130">
         <v>42065</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="132">
         <v>1</v>
       </c>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="217" t="s">
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="213" t="s">
         <v>290</v>
       </c>
-      <c r="H17" s="203"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="207" t="s">
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="203" t="s">
         <v>300</v>
       </c>
-      <c r="N17" s="204"/>
+      <c r="N17" s="200"/>
     </row>
     <row r="18" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="234"/>
-      <c r="B18" s="131" t="s">
+      <c r="A18" s="272"/>
+      <c r="B18" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="144">
+      <c r="C18" s="140">
         <v>42067</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="94">
         <v>2</v>
       </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="211" t="s">
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="I18" s="205"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="205"/>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="206"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="202"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="233" t="s">
+      <c r="A19" s="277" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="130">
         <v>42072</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="132">
         <v>0.5</v>
       </c>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="204"/>
+      <c r="E19" s="199"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="199"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="200"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="234"/>
-      <c r="B20" s="131" t="s">
+      <c r="A20" s="272"/>
+      <c r="B20" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="144">
+      <c r="C20" s="140">
         <v>42074</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="94">
         <v>1.75</v>
       </c>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="205"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="206"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="202"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="174" t="s">
         <v>261</v>
       </c>
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="132" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="165">
+      <c r="C21" s="161">
         <v>42080</v>
       </c>
-      <c r="D21" s="148">
+      <c r="D21" s="144">
         <v>1</v>
       </c>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="212" t="s">
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="208" t="s">
         <v>254</v>
       </c>
-      <c r="I21" s="209"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="210"/>
+      <c r="I21" s="205"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="206"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="175" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="213"/>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="214"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="209"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="210"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="176" t="s">
         <v>267</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="172" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="214"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="209"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="209"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="210"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="176" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="213"/>
-      <c r="G24" s="213"/>
-      <c r="H24" s="213"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="213"/>
-      <c r="L24" s="213"/>
-      <c r="M24" s="213"/>
-      <c r="N24" s="214"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="209"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="210"/>
     </row>
     <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="233" t="s">
+      <c r="A25" s="277" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="130">
         <v>42107</v>
       </c>
-      <c r="D25" s="146">
+      <c r="D25" s="142">
         <v>0.5</v>
       </c>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="207" t="s">
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="203" t="s">
         <v>293</v>
       </c>
-      <c r="I25" s="203"/>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="203"/>
-      <c r="M25" s="216" t="s">
+      <c r="I25" s="199"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="212" t="s">
         <v>294</v>
       </c>
-      <c r="N25" s="204"/>
+      <c r="N25" s="200"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="234"/>
-      <c r="B26" s="136" t="s">
+      <c r="A26" s="272"/>
+      <c r="B26" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="130">
         <v>42111</v>
       </c>
-      <c r="D26" s="136">
+      <c r="D26" s="132">
         <v>1</v>
       </c>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="205"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="205"/>
-      <c r="L26" s="205"/>
-      <c r="M26" s="205"/>
-      <c r="N26" s="206"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="202"/>
     </row>
     <row r="27" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="184" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="162" t="s">
         <v>236</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="167">
         <v>42114</v>
       </c>
-      <c r="D27" s="148">
+      <c r="D27" s="144">
         <v>0.5</v>
       </c>
-      <c r="E27" s="209"/>
-      <c r="F27" s="212" t="s">
+      <c r="E27" s="205"/>
+      <c r="F27" s="208" t="s">
         <v>295</v>
       </c>
-      <c r="G27" s="209"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="209"/>
-      <c r="J27" s="209"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="212" t="s">
+      <c r="G27" s="205"/>
+      <c r="H27" s="205"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="205"/>
+      <c r="K27" s="205"/>
+      <c r="L27" s="205"/>
+      <c r="M27" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="N27" s="210"/>
+      <c r="N27" s="206"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="172">
+      <c r="C28" s="168">
         <v>42125</v>
       </c>
-      <c r="D28" s="148">
+      <c r="D28" s="144">
         <v>0.75</v>
       </c>
-      <c r="E28" s="209"/>
-      <c r="F28" s="209"/>
-      <c r="G28" s="209"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="209"/>
-      <c r="J28" s="209"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="210"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="205"/>
+      <c r="J28" s="205"/>
+      <c r="K28" s="205"/>
+      <c r="L28" s="205"/>
+      <c r="M28" s="205"/>
+      <c r="N28" s="206"/>
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="277" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="132" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="135">
+      <c r="C29" s="131">
         <v>42128</v>
       </c>
-      <c r="D29" s="136">
+      <c r="D29" s="132">
         <v>0.5</v>
       </c>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="217" t="s">
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="213" t="s">
         <v>290</v>
       </c>
-      <c r="H29" s="217" t="s">
+      <c r="H29" s="213" t="s">
         <v>290</v>
       </c>
-      <c r="I29" s="203"/>
-      <c r="J29" s="203"/>
-      <c r="K29" s="203"/>
-      <c r="L29" s="203"/>
-      <c r="M29" s="207" t="s">
+      <c r="I29" s="199"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="199"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="N29" s="204"/>
+      <c r="N29" s="200"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="234"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="272"/>
+      <c r="B30" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="173">
+      <c r="C30" s="169">
         <v>42132</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="94">
         <v>1</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
-      <c r="M30" s="205"/>
-      <c r="N30" s="206"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="202"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="176" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="213"/>
-      <c r="G31" s="213"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="214"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="210"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="249" t="s">
+      <c r="A32" s="280" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="130">
         <v>42142</v>
       </c>
-      <c r="D32" s="136"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="203"/>
-      <c r="K32" s="203"/>
-      <c r="L32" s="203"/>
-      <c r="M32" s="203"/>
-      <c r="N32" s="204"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="199"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="199"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="199"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="200"/>
     </row>
     <row r="33" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="250"/>
-      <c r="B33" s="131" t="s">
+      <c r="A33" s="285"/>
+      <c r="B33" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="C33" s="256">
+      <c r="C33" s="226">
         <v>42146</v>
       </c>
       <c r="D33" s="28"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="211" t="s">
+      <c r="E33" s="233"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="207" t="s">
         <v>298</v>
       </c>
-      <c r="K33" s="211" t="s">
+      <c r="K33" s="207" t="s">
         <v>298</v>
       </c>
-      <c r="L33" s="205"/>
-      <c r="M33" s="205"/>
-      <c r="N33" s="204"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="200"/>
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="233" t="s">
+      <c r="A34" s="277" t="s">
         <v>276</v>
       </c>
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="182" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="123">
         <v>42149</v>
       </c>
       <c r="D34">
         <v>0.5</v>
       </c>
-      <c r="E34" s="203"/>
-      <c r="F34" s="217" t="s">
+      <c r="E34" s="199"/>
+      <c r="F34" s="213" t="s">
         <v>278</v>
       </c>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="207" t="s">
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="203" t="s">
         <v>279</v>
       </c>
-      <c r="N34" s="264"/>
+      <c r="N34" s="234"/>
     </row>
     <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="242"/>
-      <c r="B35" s="186" t="s">
+      <c r="A35" s="278"/>
+      <c r="B35" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="123">
         <v>42153</v>
       </c>
       <c r="D35">
         <v>1.5</v>
       </c>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
-      <c r="K35" s="207" t="s">
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="203" t="s">
         <v>299</v>
       </c>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="204"/>
+      <c r="L35" s="199"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:A30"/>
@@ -13059,6 +13056,11 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="F15 G17 F34">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
